--- a/src/main/resources/template/template.xlsx
+++ b/src/main/resources/template/template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{$fe:list t.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t.project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +58,14 @@
   </si>
   <si>
     <t>t.sex}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe: maplist  t.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{test}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -429,19 +433,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
